--- a/programs/frameworks/neural/data/dt.xlsx
+++ b/programs/frameworks/neural/data/dt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6061A9E9-6338-4842-A5C6-132CA9E79682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF42FE3-4877-4728-8E4D-9F0B23AE0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11772" yWindow="1800" windowWidth="19272" windowHeight="13236" activeTab="1" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
+    <workbookView xWindow="11772" yWindow="1800" windowWidth="19272" windowHeight="13236" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf" sheetId="1" r:id="rId1"/>
@@ -48,15 +48,9 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Left target</t>
-  </si>
-  <si>
     <t>Left met</t>
   </si>
   <si>
-    <t>Right target</t>
-  </si>
-  <si>
     <t>Right met</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>Left not met</t>
+  </si>
+  <si>
+    <t>Right not met</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A74A6F-E1C6-4FE1-9AA1-B58FD95A66B2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <f>COUNTIFS(C2:C21,"&lt;&gt;"&amp;"")</f>
@@ -501,16 +501,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <f>COUNTIFS(B2:B21, "TRUE",C2:C21, "TRUE")</f>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f>COUNTIF(B2:B21, "FALSE")</f>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <f>COUNTIFS(B2:B21, "false",C2:C21, "TRUE")</f>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <f>F4/F1*H4+F7/F1*H7</f>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C05382B-9C72-4B56-B866-4CD74987F803}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <f>COUNTIFS(C2:C21,"&lt;&gt;"&amp;"")</f>
@@ -837,16 +837,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <f>COUNTIFS(B2:B21, "TRUE",C2:C21, "TRUE")</f>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <f>COUNTIFS(B2:B21, "false",C2:C21, "TRUE")</f>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <f>F4/F1*H4+F7/F1*H7</f>

--- a/programs/frameworks/neural/data/dt.xlsx
+++ b/programs/frameworks/neural/data/dt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF42FE3-4877-4728-8E4D-9F0B23AE0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65961C-7BD8-4DB7-96F5-C9EDC4D16EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11772" yWindow="1800" windowWidth="19272" windowHeight="13236" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
+    <workbookView xWindow="5076" yWindow="1332" windowWidth="19272" windowHeight="13236" activeTab="1" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A74A6F-E1C6-4FE1-9AA1-B58FD95A66B2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C05382B-9C72-4B56-B866-4CD74987F803}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,6 +863,7 @@
         <v>3</v>
       </c>
       <c r="F4">
+        <f>COUNTIF(A2:A21, "TRUE")</f>
         <v>10</v>
       </c>
       <c r="G4" s="2">
@@ -888,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <f>COUNTIFS(B2:B21, "TRUE",C2:C21, "TRUE")</f>
+        <f>COUNTIFS(A2:A21, "TRUE",C2:C21, "TRUE")</f>
         <v>8</v>
       </c>
       <c r="G5">
@@ -921,6 +922,7 @@
         <v>4</v>
       </c>
       <c r="F7">
+        <f>COUNTIF(A2:A21, "FALSE")</f>
         <v>10</v>
       </c>
       <c r="G7">
@@ -946,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <f>COUNTIFS(B2:B21, "false",C2:C21, "TRUE")</f>
+        <f>COUNTIFS(A2:A21, "false",C2:C21, "TRUE")</f>
         <v>2</v>
       </c>
       <c r="G8">

--- a/programs/frameworks/neural/data/dt.xlsx
+++ b/programs/frameworks/neural/data/dt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE65961C-7BD8-4DB7-96F5-C9EDC4D16EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0539481-D7B0-4FEC-8AFA-F83F92052CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5076" yWindow="1332" windowWidth="19272" windowHeight="13236" activeTab="1" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
+    <workbookView xWindow="16632" yWindow="2280" windowWidth="19272" windowHeight="13236" activeTab="1" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,10 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +803,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,24 +837,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
+      <c r="A2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
+      <c r="A3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -850,13 +871,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
+      <c r="A4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -876,13 +897,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
+      <c r="A5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -898,24 +919,24 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
+      <c r="A6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
+      <c r="A7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -935,13 +956,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
+      <c r="A8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -957,24 +978,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
+      <c r="A9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b">
+      <c r="A10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -986,124 +1007,124 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
+      <c r="A11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
+      <c r="A12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
+      <c r="A13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
+      <c r="A14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="b">
+      <c r="A15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
+      <c r="A16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
+      <c r="A17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
+      <c r="A18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
+      <c r="A19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
+      <c r="A20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
+      <c r="A21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/programs/frameworks/neural/data/dt.xlsx
+++ b/programs/frameworks/neural/data/dt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DA1EB-1221-4FCE-9ABB-B5F182E7E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B6216-FB8A-4912-8476-D91C06BB1181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11136" yWindow="2148" windowWidth="21696" windowHeight="13236" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
   </bookViews>
@@ -99,8 +99,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -527,7 +536,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N27" sqref="N27:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,759 +555,766 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="10"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="A2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" t="s">
+      <c r="A3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f>COUNTIFS(C:C,"&lt;&gt;"&amp;"") -1</f>
         <v>20</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4"/>
+      <c r="A4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="b">
+      <c r="L4" s="5" t="b">
         <f>(L5+L7)=$L$3</f>
         <v>1</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="A5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <f>COUNTIF(B:B,"true")</f>
         <v>14</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <f>L6/L5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f>1-(M5*M5+M6*M6)</f>
         <v>0.48979591836734693</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="13">
         <f>L5/$L$3*N5 + L7/$L$3*N7</f>
         <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6" t="s">
+      <c r="A6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <f>COUNTIFS(B:B,TRUE,C:C, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <f>1-M5</f>
         <v>0.4285714285714286</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5" t="s">
+      <c r="A7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <f>COUNTIF(B:B,"false")</f>
         <v>6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <f>L8/L7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f>1-(M7*M7+M8*M8)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6" t="s">
+      <c r="A8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <f>COUNTIFS(B:B,FALSE,C:C, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <f>1-M7</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="12"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="A9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4"/>
+      <c r="A10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="4" t="b">
+      <c r="L10" s="5" t="b">
         <f>(L11+L13)=$L$3</f>
         <v>1</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="A11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <f>COUNTIF(A:A,"true")</f>
         <v>10</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <f>L12/L11</f>
         <v>0.8</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f>1-(M11*M11+M12*M12)</f>
         <v>0.31999999999999984</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="14">
         <f>L11/$L$3*N11 + L13/$L$3*N13</f>
         <v>0.31999999999999984</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6" t="s">
+      <c r="A12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <f>COUNTIFS(A:A,TRUE,C:C, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <f>1-M11</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="13"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5" t="s">
+      <c r="A13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <f>COUNTIF(A:A,"false")</f>
         <v>10</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <f>L14/L13</f>
         <v>0.2</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>1-(M13*M13+M14*M14)</f>
         <v>0.31999999999999984</v>
       </c>
-      <c r="O13" s="13"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6" t="s">
+      <c r="A14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <f>COUNTIFS(A:A,FALSE,C:C, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <f>1-M13</f>
         <v>0.8</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="13"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
+      <c r="A15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="A16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f>COUNTIFS(G:G,"&lt;&gt;"&amp;"") -1</f>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4"/>
+      <c r="A17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
       <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="4" t="b">
+      <c r="L17" s="5" t="b">
         <f>(L18+L20)=$L$16</f>
         <v>1</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="A18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <f>COUNTIF(F:F,"true")</f>
         <v>8</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <f>L19/L18</f>
         <v>1</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f>1-(M18*M18+M19*M19)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="17">
         <f>L18/$L$3*N18 + L20/$L$3*N20</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6" t="s">
+      <c r="A19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="7">
         <f>COUNTIFS(F:F,TRUE,G:G, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="7">
         <f>1-M18</f>
         <v>0</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="16"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="5" t="s">
+      <c r="A20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="7">
         <f>COUNTIF(F:F,"false")</f>
         <v>2</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="7">
         <f>L21/L20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f>1-(M20*M20+M21*M21)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="16"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6" t="s">
+      <c r="A21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <f>COUNTIFS(F:F,FALSE,G:G, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="7">
         <f>1-M20</f>
         <v>0</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="16"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <f>COUNTIFS(G:G,"&lt;&gt;"&amp;"") -1</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J24" s="4"/>
+      <c r="J24" s="5"/>
       <c r="K24" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="4" t="b">
+      <c r="L24" s="5" t="b">
         <f>(L25+L27)=$L$16</f>
         <v>1</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="7">
         <f>COUNTIF(E:E,"true")</f>
         <v>8</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="7">
         <f>L26/L25</f>
         <v>1</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <f>1-(M25*M25+M26*M26)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="17">
         <f>L25/$L$3*N25 + L27/$L$3*N27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I26" s="3"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6" t="s">
+      <c r="I26" s="4"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="7">
         <f>COUNTIFS(E:E,TRUE,G:G, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="7">
         <f>1-M25</f>
         <v>0</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="16"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I27" s="3"/>
-      <c r="J27" s="5" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="7">
         <f>COUNTIF(E:E,"false")</f>
         <v>2</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="7">
         <f>L28/L27</f>
         <v>1</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <f>1-(M27*M27+M28*M28)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="16"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I28" s="3"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6" t="s">
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="7">
         <f>COUNTIFS(E:E,FALSE,G:G, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="7">
         <f>1-M27</f>
         <v>0</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="16"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="O25:O28"/>
     <mergeCell ref="J27:J28"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
@@ -1308,6 +1324,7 @@
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="O18:O21"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="N20:N21"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="I5:I8"/>

--- a/programs/frameworks/neural/data/dt.xlsx
+++ b/programs/frameworks/neural/data/dt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B6216-FB8A-4912-8476-D91C06BB1181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88515E63-EC94-415C-81DA-03FAE9F4A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11136" yWindow="2148" windowWidth="21696" windowHeight="13236" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
+    <workbookView xWindow="12636" yWindow="1164" windowWidth="23328" windowHeight="14064" xr2:uid="{8BC73549-3858-4843-9CB0-34D9690DEA20}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="4" r:id="rId1"/>
@@ -172,10 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -187,37 +186,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,6 +227,2140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Class + Play</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-760A-4022-89CD-B63FAF43C541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Play</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-760A-4022-89CD-B63FAF43C541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="112448544"/>
+        <c:axId val="248837552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112448544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248837552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="248837552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112448544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Perf + Play</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-425D-46E6-91B8-3685A87D1AE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Model!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-425D-46E6-91B8-3685A87D1AE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="112473504"/>
+        <c:axId val="224455232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112473504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224455232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224455232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112473504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>232410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44157B7-5C68-280F-87F2-32F44A78F336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B9B9D7-4288-2051-418E-823790A238D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,7 +2663,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:N28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,780 +2682,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="11"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>COUNTIFS(C:C,"&lt;&gt;"&amp;"") -1</f>
         <v>20</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5"/>
+      <c r="A4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5" t="b">
+      <c r="L4" s="4" t="b">
         <f>(L5+L7)=$L$3</f>
         <v>1</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="A5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f>COUNTIF(B:B,"true")</f>
         <v>14</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>L6/L5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="12">
         <f>1-(M5*M5+M6*M6)</f>
         <v>0.48979591836734693</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="15">
         <f>L5/$L$3*N5 + L7/$L$3*N7</f>
         <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7" t="s">
+      <c r="A6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>COUNTIFS(B:B,TRUE,C:C, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f>1-M5</f>
         <v>0.4285714285714286</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6" t="s">
+      <c r="A7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f>COUNTIF(B:B,"false")</f>
         <v>6</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f>L8/L7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="12">
         <f>1-(M7*M7+M8*M8)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7" t="s">
+      <c r="A8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f>COUNTIFS(B:B,FALSE,C:C, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f>1-M7</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5"/>
+      <c r="A10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="5" t="b">
+      <c r="L10" s="4" t="b">
         <f>(L11+L13)=$L$3</f>
         <v>1</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="A11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f>COUNTIF(A:A,"true")</f>
         <v>10</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f>L12/L11</f>
         <v>0.8</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="12">
         <f>1-(M11*M11+M12*M12)</f>
         <v>0.31999999999999984</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="16">
         <f>L11/$L$3*N11 + L13/$L$3*N13</f>
         <v>0.31999999999999984</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7" t="s">
+      <c r="A12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f>COUNTIFS(A:A,TRUE,C:C, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f>1-M11</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6" t="s">
+      <c r="A13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f>COUNTIF(A:A,"false")</f>
         <v>10</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f>L14/L13</f>
         <v>0.2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="12">
         <f>1-(M13*M13+M14*M14)</f>
         <v>0.31999999999999984</v>
       </c>
-      <c r="O13" s="14"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7" t="s">
+      <c r="A14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f>COUNTIFS(A:A,FALSE,C:C, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f>1-M13</f>
         <v>0.8</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
+      <c r="A15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16" t="b">
+      <c r="A16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f>COUNTIFS(G:G,"&lt;&gt;"&amp;"") -1</f>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5"/>
+      <c r="A17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4"/>
       <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="5" t="b">
+      <c r="L17" s="4" t="b">
         <f>(L18+L20)=$L$16</f>
         <v>1</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="A18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f>COUNTIF(F:F,"true")</f>
         <v>8</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f>L19/L18</f>
         <v>1</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="12">
         <f>1-(M18*M18+M19*M19)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="14">
         <f>L18/$L$3*N18 + L20/$L$3*N20</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7" t="s">
+      <c r="A19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f>COUNTIFS(F:F,TRUE,G:G, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f>1-M18</f>
         <v>0</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="17"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="6" t="s">
+      <c r="A20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f>COUNTIF(F:F,"false")</f>
         <v>2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f>L21/L20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="12">
         <f>1-(M20*M20+M21*M21)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="17"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7" t="s">
+      <c r="A21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f>COUNTIFS(F:F,FALSE,G:G, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <f>1-M20</f>
         <v>0</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="17"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <f>COUNTIFS(G:G,"&lt;&gt;"&amp;"") -1</f>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J24" s="5"/>
+      <c r="J24" s="4"/>
       <c r="K24" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="5" t="b">
+      <c r="L24" s="4" t="b">
         <f>(L25+L27)=$L$16</f>
         <v>1</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f>COUNTIF(E:E,"true")</f>
         <v>8</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f>L26/L25</f>
         <v>1</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="12">
         <f>1-(M25*M25+M26*M26)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="14">
         <f>L25/$L$3*N25 + L27/$L$3*N27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I26" s="4"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7" t="s">
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f>COUNTIFS(E:E,TRUE,G:G, "TRUE")</f>
         <v>8</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <f>1-M25</f>
         <v>0</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="17"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I27" s="4"/>
-      <c r="J27" s="6" t="s">
+      <c r="I27" s="13"/>
+      <c r="J27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f>COUNTIF(E:E,"false")</f>
         <v>2</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <f>L28/L27</f>
         <v>1</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="12">
         <f>1-(M27*M27+M28*M28)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="17"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I28" s="4"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f>COUNTIFS(E:E,FALSE,G:G, "TRUE")</f>
         <v>2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <f>1-M27</f>
         <v>0</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="17"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="N25:N26"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="O25:O28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I5:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>